--- a/trunk/SearchComponents.xlsx
+++ b/trunk/SearchComponents.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>Ví dụ</t>
   </si>
@@ -246,6 +246,24 @@
   </si>
   <si>
     <t>Có thể boost lúc query và index</t>
+  </si>
+  <si>
+    <t>rich query syntax</t>
+  </si>
+  <si>
+    <t>Smashing AND Pumpkins
++Smashing +Pumpkins
+Smashing || Pumpkins
+Smashing NOT Atoms
+(Smashing AND Pumpkins) OR (Green AND Day)
+Smashing (-Pumpkins *:*)
+sma*ing, sma??*</t>
+  </si>
+  <si>
+    <t>Kết hợp toán tử boolean(and, or, not). Mặc định là or
+Sub-expressions
+Wildcard queries
+Fuzzy queries</t>
   </si>
 </sst>
 </file>
@@ -633,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -665,25 +683,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="30">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:5" s="12" customFormat="1" ht="120">
+      <c r="A2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="10" customFormat="1" ht="30">
+      <c r="A3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B3" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" s="10" customFormat="1">
-      <c r="A3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="11" t="s">
@@ -693,163 +709,178 @@
     </row>
     <row r="4" spans="1:5" s="10" customFormat="1">
       <c r="A4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" s="10" customFormat="1">
+      <c r="A5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" ht="300">
-      <c r="A5" s="7" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" ht="300">
+      <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="60">
-      <c r="A6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E6"/>
-    </row>
-    <row r="7" spans="1:5" ht="45">
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60">
       <c r="A7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5" ht="120">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:5" ht="45">
+      <c r="A8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:5" ht="120">
+      <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="180">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:5" ht="180">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="53.25" customHeight="1">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="237.75" customHeight="1">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:5" ht="237.75" customHeight="1">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:5" ht="30">
+      <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:5" ht="30">
+      <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="4" t="s">
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D17" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D15:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/SearchComponents.xlsx
+++ b/trunk/SearchComponents.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>Ví dụ</t>
   </si>
@@ -260,10 +260,20 @@
 sma*ing, sma??*</t>
   </si>
   <si>
+    <t>rich Query parameters</t>
+  </si>
+  <si>
     <t>Kết hợp toán tử boolean(and, or, not). Mặc định là or
 Sub-expressions
 Wildcard queries
-Fuzzy queries</t>
+Fuzzy queries
+Range queries
+Date math.
+Score boosting
+Escaping special characters</t>
+  </si>
+  <si>
+    <t>Result paging, sort, debugQuery, version, writer type,…</t>
   </si>
 </sst>
 </file>
@@ -651,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -683,36 +693,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" ht="120">
+    <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="12" customFormat="1" ht="120">
+      <c r="A3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="B3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="10" customFormat="1" ht="30">
-      <c r="A3" s="11" t="s">
+    <row r="4" spans="1:5" s="10" customFormat="1" ht="30">
+      <c r="A4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B4" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" s="10" customFormat="1">
-      <c r="A4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="11" t="s">
@@ -722,10 +727,10 @@
     </row>
     <row r="5" spans="1:5" s="10" customFormat="1">
       <c r="A5" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="11" t="s">
@@ -733,154 +738,167 @@
       </c>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="300">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:5" s="10" customFormat="1">
+      <c r="A6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" ht="300">
+      <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="60">
-      <c r="A7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E7"/>
-    </row>
-    <row r="8" spans="1:5" ht="45">
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60">
       <c r="A8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:5" ht="120">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:5" ht="45">
+      <c r="A9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:5" ht="120">
+      <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="180">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:5" ht="180">
+      <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="53.25" customHeight="1">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="237.75" customHeight="1">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:5" ht="237.75" customHeight="1">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:5" ht="30">
+      <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D16" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:4" ht="30">
+      <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4" t="s">
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D18" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D16:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/SearchComponents.xlsx
+++ b/trunk/SearchComponents.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
   <si>
     <t>Ví dụ</t>
   </si>
@@ -25,9 +25,6 @@
   </si>
   <si>
     <t>Ghi chú</t>
-  </si>
-  <si>
-    <t>HighLight</t>
   </si>
   <si>
     <r>
@@ -86,25 +83,16 @@
     <t>Cần nắm rõ các tham số config khi sử dụng</t>
   </si>
   <si>
-    <t>Query Elevation</t>
-  </si>
-  <si>
     <t>Có thể</t>
   </si>
   <si>
     <t>query text="corgan" nên khi tìm kiếm chuỗi "billy corgan" thì ko ảnh hưởng bởi cấu hình này.</t>
   </si>
   <si>
-    <t>Spell Checking</t>
-  </si>
-  <si>
     <t>Kiểm tra lỗi chính tả nhờ một bộ từ điển được tham chiếu trong file config</t>
   </si>
   <si>
     <t>Chưa</t>
-  </si>
-  <si>
-    <t>More like this</t>
   </si>
   <si>
     <t>Ví dụ: tìm kiếm bản nhạc "The End Is the Beginning Is the End" ngoài kết quả trả về. thì more like this còn trả response gồm nhiều doc có score thõa mãn yêu cầu.
@@ -129,25 +117,7 @@
     &lt;/doc&gt;...</t>
   </si>
   <si>
-    <t>Stats</t>
-  </si>
-  <si>
     <t>dùng để thống kê 1 field nào đó</t>
-  </si>
-  <si>
-    <t>Field collapsing</t>
-  </si>
-  <si>
-    <t>Giống câu truy vấn group by trong sql. Gom nhóm các Field có cùng giá trị</t>
-  </si>
-  <si>
-    <t>Term</t>
-  </si>
-  <si>
-    <t>TermVector</t>
-  </si>
-  <si>
-    <t>LocalSolr</t>
   </si>
   <si>
     <t>Chưa dùng tới</t>
@@ -181,17 +151,155 @@
     <t>Tên Componant</t>
   </si>
   <si>
-    <t>Faceting</t>
-  </si>
-  <si>
     <t xml:space="preserve">Đưa ra một số thông tin có liên quan đến kết quả tìm kiếm dưới dạng các link. 
 Đây là các thông tin tổng thể được tổng hợp từ tất cả các document.
 Có chức năng suggest tạo từ khóa chính xác </t>
   </si>
   <si>
+    <t>upgrade cái suggest từ trong tiếng Việt</t>
+  </si>
+  <si>
+    <t>Tìm kiếm trên nhiều field với boost khác nhau để đưa ra kết quả tốt nhất
+Tự động boost cho mệnh đề được search</t>
+  </si>
+  <si>
+    <t>Gồm tập hợp các hàm tính toán score để đưa ra kết quả tốt nhất</t>
+  </si>
+  <si>
+    <t>Ví dụ hàm rord(myDateField) sẽ trả ra số "tuổi" của document này
+Document mới  nhất sẽ trả ra 1, document cũ nhất sẽ chính là tổng số document</t>
+  </si>
+  <si>
+    <t>Sắp xếp kết quả trả về theo các tham số khác nhau, 
+mặc định là sx theo score giảm dần</t>
+  </si>
+  <si>
+    <t>Điểm đánh giá kết quả trả về</t>
+  </si>
+  <si>
+    <t>Có thể boost lúc query và index</t>
+  </si>
+  <si>
+    <t>Chương</t>
+  </si>
+  <si>
+    <t>Giống câu truy vấn group by trong sql. Gom nhóm các Field có cùng giá trị, bo dữ liệu trùng(Version 1.5)</t>
+  </si>
+  <si>
+    <t>Chương 4: Basic Searching</t>
+  </si>
+  <si>
+    <t>Parameters affecting the query</t>
+  </si>
+  <si>
+    <t>Result paging</t>
+  </si>
+  <si>
+    <t>Output related parameters</t>
+  </si>
+  <si>
+    <t>Diagnostic query parameters</t>
+  </si>
+  <si>
+    <t>Matching all the documents</t>
+  </si>
+  <si>
+    <t>Mandatory, prohibited, and optional clauses</t>
+  </si>
+  <si>
+    <t>Sub-expressions (aka sub-queries)</t>
+  </si>
+  <si>
+    <t>Field qualifier</t>
+  </si>
+  <si>
+    <t>Phrase queries and term proximity</t>
+  </si>
+  <si>
+    <t>Wildcard queries</t>
+  </si>
+  <si>
+    <t>Range queries</t>
+  </si>
+  <si>
+    <t>Score boosting</t>
+  </si>
+  <si>
+    <t>Escaping special characters</t>
+  </si>
+  <si>
+    <t>Existence (and non-existence) queries</t>
+  </si>
+  <si>
+    <t>Query-time and index-time boosting</t>
+  </si>
+  <si>
+    <t>Troubleshooting scoring</t>
+  </si>
+  <si>
+    <t>Các parameter này dùng để phân trang</t>
+  </si>
+  <si>
+    <t>start: (default: 0), rows: (default: 10)</t>
+  </si>
+  <si>
+    <t>4.1 Query parameters</t>
+  </si>
+  <si>
+    <t>4.2 Query syntax</t>
+  </si>
+  <si>
+    <t>Các parameter này ảnh hưởng tới kết quả truy vấn</t>
+  </si>
+  <si>
+    <t>q (chuỗi truy vấn), 
+q.op (By default, either AND or OR to signify), df: The default feld that will be searched</t>
+  </si>
+  <si>
+    <t>Hiển thị kết quả trả về</t>
+  </si>
+  <si>
+    <t>fl: This is the feld list
+sort (default is score desc)
+wt: A reference to the writer type
+Custom output formats</t>
+  </si>
+  <si>
+    <t>Chưa hiểu rõ</t>
+  </si>
+  <si>
+    <t>Lấy hết tất cả các document</t>
+  </si>
+  <si>
+    <t>*:*</t>
+  </si>
+  <si>
+    <t>Kết hợp các mệnh đề trong câu truy vấn, có sử dụng thêm toán tử</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +Smashing,
+ +Smashing Pumpkins
+Smashing Pumpkins -Atoms</t>
+  </si>
+  <si>
+    <t>Dùng dấu ngoặc để chỉ độ ưu tiên</t>
+  </si>
+  <si>
+    <t>(Smashing AND Pumpkins) OR (Green AND Day)
+(+Smashing +Pumpkins) (+Green +Day)</t>
+  </si>
+  <si>
+    <t>Chương 5: Enhanced Searching</t>
+  </si>
+  <si>
+    <t>Sub-componant</t>
+  </si>
+  <si>
+    <t>Chương 6: Search Components</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gõ keyword: siamese dr sẽ được suggest là dreams
-Khi ta facet 2 field "manu" và "camera_type"
-thì kết quả trả về sẽ có thêm những dữ liệu sau:
+Khi ta facet 2 field "manu" và "camera_type". Khi tìm kiếm với từ khóa "camera"thì kết quả trả về sẽ có thêm những dữ liệu sau:
 &lt;lst name="facet_fields"&gt;
           &lt;lst name="manu"&gt;
           &lt;int name="Canon USA"&gt;17&lt;/int&gt;
@@ -209,78 +317,72 @@
 </t>
   </si>
   <si>
-    <t>upgrade cái suggest từ trong tiếng Việt</t>
-  </si>
-  <si>
-    <t>Dismax Solr request handle</t>
-  </si>
-  <si>
-    <t>Tìm kiếm trên nhiều field với boost khác nhau để đưa ra kết quả tốt nhất
-Tự động boost cho mệnh đề được search</t>
-  </si>
-  <si>
-    <t>Function Query</t>
-  </si>
-  <si>
-    <t>Gồm tập hợp các hàm tính toán score để đưa ra kết quả tốt nhất</t>
-  </si>
-  <si>
-    <t>Ví dụ hàm rord(myDateField) sẽ trả ra số "tuổi" của document này
-Document mới  nhất sẽ trả ra 1, document cũ nhất sẽ chính là tổng số document</t>
-  </si>
-  <si>
-    <t>Sorting</t>
-  </si>
-  <si>
-    <t>Sắp xếp kết quả trả về theo các tham số khác nhau, 
-mặc định là sx theo score giảm dần</t>
-  </si>
-  <si>
-    <t>Scoring</t>
-  </si>
-  <si>
-    <t>Điểm đánh giá kết quả trả về</t>
-  </si>
-  <si>
-    <t>Boosting</t>
-  </si>
-  <si>
-    <t>Có thể boost lúc query và index</t>
-  </si>
-  <si>
-    <t>rich query syntax</t>
-  </si>
-  <si>
-    <t>Smashing AND Pumpkins
-+Smashing +Pumpkins
-Smashing || Pumpkins
-Smashing NOT Atoms
-(Smashing AND Pumpkins) OR (Green AND Day)
-Smashing (-Pumpkins *:*)
-sma*ing, sma??*</t>
-  </si>
-  <si>
-    <t>rich Query parameters</t>
-  </si>
-  <si>
-    <t>Kết hợp toán tử boolean(and, or, not). Mặc định là or
-Sub-expressions
-Wildcard queries
-Fuzzy queries
-Range queries
-Date math.
-Score boosting
-Escaping special characters</t>
-  </si>
-  <si>
-    <t>Result paging, sort, debugQuery, version, writer type,…</t>
+    <t>5.1 Faceting</t>
+  </si>
+  <si>
+    <t>5.2 Function Query</t>
+  </si>
+  <si>
+    <t>5.3 Dismax Solr request handle</t>
+  </si>
+  <si>
+    <t>6.1 HighLight</t>
+  </si>
+  <si>
+    <t>6.2 Query Elevation</t>
+  </si>
+  <si>
+    <t>6.3 Spell Checking</t>
+  </si>
+  <si>
+    <t>6.4 More like this</t>
+  </si>
+  <si>
+    <t>6.5 Stats</t>
+  </si>
+  <si>
+    <t>6.6 Field collapsing</t>
+  </si>
+  <si>
+    <t>6.7 Term</t>
+  </si>
+  <si>
+    <t>6.8 TermVector</t>
+  </si>
+  <si>
+    <t>6.9 ocalSolr</t>
+  </si>
+  <si>
+    <t>4.3 Filtering</t>
+  </si>
+  <si>
+    <t>4.4 Sorting</t>
+  </si>
+  <si>
+    <t>4.5 Request handlers</t>
+  </si>
+  <si>
+    <t>4.6 Scoring</t>
+  </si>
+  <si>
+    <t>4.7 Boosting</t>
+  </si>
+  <si>
+    <t>Có thể dùng các kí tự đặc biệt trong câu truy vấn
++ - &amp;&amp; || ! ( ) { } [ ] ^ " ~ * ? : \</t>
+  </si>
+  <si>
+    <t>id:"Artist:11650" (escape 11650)</t>
+  </si>
+  <si>
+    <t>chưa hiểu rõ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,13 +411,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -330,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -354,9 +484,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -366,6 +493,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,244 +797,472 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="58.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="86.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22" style="4" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="58.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="86.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="21">
       <c r="A1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="13" customFormat="1" ht="56.25">
+      <c r="A2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="14" customFormat="1" ht="31.5">
+      <c r="B3" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="11" customFormat="1" ht="45">
+      <c r="C4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="11" customFormat="1">
+      <c r="C5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="11" customFormat="1" ht="60">
+      <c r="C6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="11" customFormat="1">
+      <c r="C7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="14" customFormat="1" ht="15.75">
+      <c r="B8" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="11" customFormat="1">
+      <c r="C9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="11" customFormat="1" ht="45">
+      <c r="C10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="11" customFormat="1" ht="30">
+      <c r="C11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="11" customFormat="1">
+      <c r="C12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="11" customFormat="1" ht="30">
+      <c r="C13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="11" customFormat="1">
+      <c r="C14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="11" customFormat="1">
+      <c r="C15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="11" customFormat="1">
+      <c r="C16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="11" customFormat="1" ht="30">
+      <c r="C17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="11" customFormat="1" ht="30">
+      <c r="C18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="14" customFormat="1" ht="15.75">
+      <c r="B19" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="11" customFormat="1">
+      <c r="D20" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="14" customFormat="1" ht="15.75">
+      <c r="B21" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="11" customFormat="1" ht="30">
+      <c r="D22" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="14" customFormat="1" ht="15.75">
+      <c r="B23" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="9" customFormat="1">
+      <c r="C24" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" s="9" customFormat="1">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" s="14" customFormat="1" ht="15.75">
+      <c r="B26" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="9" customFormat="1">
+      <c r="C27" s="10"/>
+      <c r="D27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7" s="14" customFormat="1" ht="15.75">
+      <c r="B28" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="9" customFormat="1">
+      <c r="C29" s="10"/>
+      <c r="D29" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7" s="13" customFormat="1" ht="56.25">
+      <c r="A30" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="14" customFormat="1" ht="15.75">
+      <c r="B31" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="300">
+      <c r="C32" s="7"/>
+      <c r="D32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="14" customFormat="1" ht="15.75">
+      <c r="B33" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="60">
+      <c r="C34" s="7"/>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="1:7" s="14" customFormat="1" ht="31.5">
+      <c r="B35" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="45">
+      <c r="C36" s="7"/>
+      <c r="D36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="1:7" s="13" customFormat="1" ht="75">
+      <c r="A37" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="14" customFormat="1" ht="15.75">
+      <c r="B38" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="120">
+      <c r="E39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="14" customFormat="1" ht="15.75">
+      <c r="B40" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="180">
+      <c r="D41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="14" customFormat="1" ht="15.75">
+      <c r="B42" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="53.25" customHeight="1">
+      <c r="D43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="14" customFormat="1" ht="15.75">
+      <c r="B44" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="237.75" customHeight="1">
+      <c r="E45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="14" customFormat="1" ht="15.75">
+      <c r="B46" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="E47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="14" customFormat="1" ht="15.75">
+      <c r="B48" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="30">
+      <c r="D49" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="12" customFormat="1">
-      <c r="A2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="12" customFormat="1" ht="120">
-      <c r="A3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="10" customFormat="1" ht="30">
-      <c r="A4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" s="10" customFormat="1">
-      <c r="A5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" s="10" customFormat="1">
-      <c r="A6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" ht="300">
-      <c r="A7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="60">
-      <c r="A8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8"/>
-    </row>
-    <row r="9" spans="1:5" ht="45">
-      <c r="A9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9"/>
-    </row>
-    <row r="10" spans="1:5" ht="120">
-      <c r="A10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="180">
-      <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="53.25" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
+    <row r="50" spans="2:6" s="14" customFormat="1" ht="15.75">
+      <c r="B50" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="D51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="237.75" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
+    <row r="52" spans="2:6" s="14" customFormat="1" ht="15.75">
+      <c r="B52" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F52" s="15"/>
+    </row>
+    <row r="53" spans="2:6" ht="30">
+      <c r="D53" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30">
-      <c r="A17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="9"/>
+      <c r="F53" s="15"/>
+    </row>
+    <row r="54" spans="2:6" s="14" customFormat="1" ht="15.75">
+      <c r="B54" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54" s="15"/>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="F55" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="F51:F55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/SearchComponents.xlsx
+++ b/trunk/SearchComponents.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="102">
   <si>
     <t>Ví dụ</t>
   </si>
@@ -83,16 +83,10 @@
     <t>Cần nắm rõ các tham số config khi sử dụng</t>
   </si>
   <si>
-    <t>Có thể</t>
-  </si>
-  <si>
     <t>query text="corgan" nên khi tìm kiếm chuỗi "billy corgan" thì ko ảnh hưởng bởi cấu hình này.</t>
   </si>
   <si>
     <t>Kiểm tra lỗi chính tả nhờ một bộ từ điển được tham chiếu trong file config</t>
-  </si>
-  <si>
-    <t>Chưa</t>
   </si>
   <si>
     <t>Ví dụ: tìm kiếm bản nhạc "The End Is the Beginning Is the End" ngoài kết quả trả về. thì more like this còn trả response gồm nhiều doc có score thõa mãn yêu cầu.
@@ -120,9 +114,6 @@
     <t>dùng để thống kê 1 field nào đó</t>
   </si>
   <si>
-    <t>Chưa dùng tới</t>
-  </si>
-  <si>
     <t>Hiển thị thông tin 1 term được index, vd tần số xuất hiện</t>
   </si>
   <si>
@@ -174,12 +165,6 @@
 mặc định là sx theo score giảm dần</t>
   </si>
   <si>
-    <t>Điểm đánh giá kết quả trả về</t>
-  </si>
-  <si>
-    <t>Có thể boost lúc query và index</t>
-  </si>
-  <si>
     <t>Chương</t>
   </si>
   <si>
@@ -263,9 +248,6 @@
 sort (default is score desc)
 wt: A reference to the writer type
 Custom output formats</t>
-  </si>
-  <si>
-    <t>Chưa hiểu rõ</t>
   </si>
   <si>
     <t>Lấy hết tất cả các document</t>
@@ -365,9 +347,6 @@
     <t>4.6 Scoring</t>
   </si>
   <si>
-    <t>4.7 Boosting</t>
-  </si>
-  <si>
     <t>Có thể dùng các kí tự đặc biệt trong câu truy vấn
 + - &amp;&amp; || ! ( ) { } [ ] ^ " ~ * ? : \</t>
   </si>
@@ -375,7 +354,98 @@
     <t>id:"Artist:11650" (escape 11650)</t>
   </si>
   <si>
-    <t>chưa hiểu rõ</t>
+    <t>Ver 1.5</t>
+  </si>
+  <si>
+    <t>Chọn querypaser</t>
+  </si>
+  <si>
+    <t>vd: DisjunctionMax parser</t>
+  </si>
+  <si>
+    <t>a_member_name:Corgan
++a_member_name:Billy + a_member_name:Corgan
+a_member_name:(+Billy +Corgan)</t>
+  </si>
+  <si>
+    <t>"Billy Corgan": muốn tìm kiếm chính xác cụm từ bỏ trong dấu nháy ""
+"Billy Corgan"~3: Tìm kiếm sao cho không có quá 3 tiếng chèn giữa Billy và Corgan</t>
+  </si>
+  <si>
+    <t>Kế thừa từ lucene</t>
+  </si>
+  <si>
+    <t>* thay thế cho 1 hay nhiều ký tự
+? Thay thế cho 1 ký tự</t>
+  </si>
+  <si>
+    <t>Fuzzy Query</t>
+  </si>
+  <si>
+    <t>Smashing~0.7 tìm kiếm các từ có khoảng cách nhỏ hơn hoặc bằng 0.7 so với Smashing</t>
+  </si>
+  <si>
+    <t>Kế thừ từ lucene. Tìm kiếm theo 1 khoảng</t>
+  </si>
+  <si>
+    <t>t_duration:[300000 TO *]</t>
+  </si>
+  <si>
+    <t>Date Match</t>
+  </si>
+  <si>
+    <t>r_event_date:[* TO NOW-2YEAR]</t>
+  </si>
+  <si>
+    <t>Tăng giảm score</t>
+  </si>
+  <si>
+    <t>a_member_name:Billy^2 OR Smashing: Ưu tiên Billy hơn Smashing
++Billy Bob Corgan^0.7: Corgan ít quan trọng hơn 2 từ khóa còn lại</t>
+  </si>
+  <si>
+    <t>Tìm kiếm văn bản mà 1 field của nó hay không có giá trị (null, empty)</t>
+  </si>
+  <si>
+    <t>a_name:[* TO *]: Tìm tất cả các doc mà field a_name có giá trị
+-a_name:[* TO *]: Tìm tất cả các doc mà field a_name không có giá trị</t>
+  </si>
+  <si>
+    <t>+Green +type:Artist -a_type:1</t>
+  </si>
+  <si>
+    <t>Config QueryType. Có thể định nghĩa nhiều qt.(field cần search, số kết quả trả về...)</t>
+  </si>
+  <si>
+    <t>Tính toán score(tf, idf, coord, fieldNorm)</t>
+  </si>
+  <si>
+    <t>dùng cho admin</t>
+  </si>
+  <si>
+    <t>&lt;lst name="stats"&gt;
+    &lt;lst name="stats_fields"&gt;
+        &lt;lst name="t_duration"&gt;
+          &lt;double name="min"&gt;0.0&lt;/double&gt;
+          &lt;double name="max"&gt;36059.0&lt;/double&gt;
+          &lt;double name="sum"&gt;1.543289275E9&lt;/double&gt;
+          &lt;long name="count"&gt;6977765&lt;/long&gt;
+          &lt;long name="missing"&gt;0&lt;/long&gt;
+          &lt;double name="sumOfSquares"&gt;5.21546498201E11&lt;/double&gt;
+          &lt;double name="mean"&gt;221.1724348699046&lt;/double&gt;
+          &lt;double name="stddev"&gt;160.70724790290328&lt;/double&gt;
+        &lt;/lst&gt;
+    &lt;/lst&gt;
+&lt;/lst&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> third party search component. Tìm kiếm lân cận</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>chưa</t>
   </si>
 </sst>
 </file>
@@ -460,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -499,9 +569,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -799,33 +866,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="22" style="4" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="46" style="4" customWidth="1"/>
     <col min="4" max="4" width="58.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="45.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="53.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="50.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="86.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1" ht="21">
       <c r="A1" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>0</v>
@@ -839,7 +906,7 @@
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" ht="56.25">
       <c r="A2" s="13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>4</v>
@@ -847,235 +914,251 @@
     </row>
     <row r="3" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="B3" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="11" customFormat="1" ht="45">
       <c r="C4" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="11" customFormat="1">
       <c r="C5" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="11" customFormat="1" ht="60">
       <c r="C6" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="11" customFormat="1">
       <c r="C7" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>54</v>
+        <v>78</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B8" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="11" customFormat="1">
       <c r="C9" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="11" customFormat="1" ht="45">
       <c r="C10" s="11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="11" customFormat="1" ht="30">
       <c r="C11" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="11" customFormat="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="11" customFormat="1" ht="45">
       <c r="C12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="11" customFormat="1" ht="30">
+        <v>32</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="11" customFormat="1" ht="60">
       <c r="C13" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="11" customFormat="1">
+        <v>33</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="11" customFormat="1" ht="30">
       <c r="C14" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="11" customFormat="1">
+        <v>82</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="11" customFormat="1" ht="30">
       <c r="C15" s="11" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>54</v>
+        <v>82</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="11" customFormat="1">
       <c r="C16" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="11" customFormat="1" ht="30">
-      <c r="C17" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="11" customFormat="1" ht="30">
+        <v>86</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="11" customFormat="1" ht="60">
       <c r="C18" s="11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="14" customFormat="1" ht="15.75">
-      <c r="B19" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="11" customFormat="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="11" customFormat="1" ht="60">
+      <c r="C19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="11" customFormat="1" ht="30">
+      <c r="C20" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="D20" s="11" t="s">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B21" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="11" customFormat="1" ht="30">
-      <c r="D22" s="11" t="s">
-        <v>24</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="11" customFormat="1">
+      <c r="E22" s="11" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B23" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="9" customFormat="1">
-      <c r="C24" s="10" t="s">
-        <v>44</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="11" customFormat="1" ht="30">
       <c r="D24" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:7" s="9" customFormat="1">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:7" s="14" customFormat="1" ht="15.75">
-      <c r="B26" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="14" customFormat="1" ht="15.75">
+      <c r="B25" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="9" customFormat="1" ht="30">
+      <c r="D26" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" s="14" customFormat="1" ht="15.75">
+      <c r="B27" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="9" customFormat="1">
-      <c r="C27" s="10"/>
-      <c r="D27" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="1:7" s="14" customFormat="1" ht="15.75">
-      <c r="B28" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>4</v>
-      </c>
+    <row r="28" spans="1:7" s="9" customFormat="1">
+      <c r="C28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" s="9" customFormat="1">
-      <c r="C29" s="10"/>
-      <c r="D29" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="C29" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="11"/>
       <c r="E29" s="12"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" s="13" customFormat="1" ht="56.25">
       <c r="A30" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>4</v>
@@ -1083,36 +1166,36 @@
     </row>
     <row r="31" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B31" s="14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="300">
       <c r="C32" s="7"/>
       <c r="D32" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F32" t="s">
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B33" s="14" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="60">
       <c r="C34" s="7"/>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F34" t="s">
         <v>4</v>
@@ -1121,13 +1204,13 @@
     </row>
     <row r="35" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="B35" s="14" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="45">
       <c r="C36" s="7"/>
       <c r="D36" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F36" t="s">
         <v>4</v>
@@ -1136,12 +1219,12 @@
     </row>
     <row r="37" spans="1:7" s="13" customFormat="1" ht="75">
       <c r="A37" s="13" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B38" s="14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="120">
@@ -1157,44 +1240,44 @@
     </row>
     <row r="40" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B40" s="14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="180">
       <c r="D41" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B42" s="14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="53.25" customHeight="1">
       <c r="D43" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B44" s="14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="237.75" customHeight="1">
       <c r="E45" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>4</v>
@@ -1202,68 +1285,73 @@
     </row>
     <row r="46" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B46" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="240">
+      <c r="D47" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="E47" s="1" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B48" s="14" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="30">
       <c r="D49" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="2:6" s="14" customFormat="1" ht="15.75">
       <c r="B50" s="14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="2:6">
-      <c r="D51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>12</v>
+      <c r="D51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="2:6" s="14" customFormat="1" ht="15.75">
       <c r="B52" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F52" s="15"/>
+        <v>69</v>
+      </c>
     </row>
     <row r="53" spans="2:6" ht="30">
       <c r="D53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="54" spans="2:6" s="14" customFormat="1" ht="15.75">
       <c r="B54" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F54" s="15"/>
+        <v>70</v>
+      </c>
     </row>
     <row r="55" spans="2:6">
-      <c r="F55" s="15"/>
+      <c r="D55" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F51:F55"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/trunk/SearchComponents.xlsx
+++ b/trunk/SearchComponents.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="104">
   <si>
     <t>Ví dụ</t>
   </si>
@@ -332,9 +332,6 @@
     <t>6.8 TermVector</t>
   </si>
   <si>
-    <t>6.9 ocalSolr</t>
-  </si>
-  <si>
     <t>4.3 Filtering</t>
   </si>
   <si>
@@ -446,6 +443,15 @@
   </si>
   <si>
     <t>chưa</t>
+  </si>
+  <si>
+    <t>6.9 LocalSolr</t>
+  </si>
+  <si>
+    <t>chưa biết</t>
+  </si>
+  <si>
+    <t>Chưa biết</t>
   </si>
 </sst>
 </file>
@@ -866,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="D33" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -908,14 +914,14 @@
       <c r="A2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="3" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="B3" s="14" t="s">
         <v>43</v>
       </c>
+      <c r="F3" s="14" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:7" s="11" customFormat="1" ht="45">
       <c r="C4" s="11" t="s">
@@ -955,16 +961,19 @@
         <v>28</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B8" s="14" t="s">
         <v>44</v>
       </c>
+      <c r="F8" s="14" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:7" s="11" customFormat="1">
       <c r="C9" s="11" t="s">
@@ -1004,7 +1013,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="11" customFormat="1" ht="60">
@@ -1012,7 +1021,7 @@
         <v>33</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="11" customFormat="1" ht="30">
@@ -1020,21 +1029,21 @@
         <v>34</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="11" customFormat="1" ht="30">
       <c r="C15" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>84</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="11" customFormat="1">
@@ -1042,20 +1051,20 @@
         <v>35</v>
       </c>
       <c r="D16" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="11" customFormat="1" ht="60">
@@ -1063,10 +1072,10 @@
         <v>36</v>
       </c>
       <c r="D18" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="11" customFormat="1" ht="60">
@@ -1074,10 +1083,10 @@
         <v>38</v>
       </c>
       <c r="D19" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="11" customFormat="1" ht="30">
@@ -1085,25 +1094,28 @@
         <v>37</v>
       </c>
       <c r="D20" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B21" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="11" customFormat="1">
       <c r="E22" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B23" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F23" s="14" t="s">
         <v>4</v>
@@ -1116,12 +1128,15 @@
     </row>
     <row r="25" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B25" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="9" customFormat="1" ht="30">
       <c r="D26" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="10"/>
@@ -1129,10 +1144,10 @@
     </row>
     <row r="27" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B27" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>4</v>
@@ -1160,16 +1175,16 @@
       <c r="A30" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="31" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B31" s="14" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="300">
+      <c r="F31" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="285">
       <c r="C32" s="7"/>
       <c r="D32" s="1" t="s">
         <v>16</v>
@@ -1187,6 +1202,9 @@
     <row r="33" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B33" s="14" t="s">
         <v>60</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="60">
@@ -1197,14 +1215,15 @@
       <c r="E34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F34" t="s">
-        <v>4</v>
-      </c>
+      <c r="F34"/>
       <c r="G34"/>
     </row>
     <row r="35" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="B35" s="14" t="s">
         <v>61</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="45">
@@ -1212,9 +1231,7 @@
       <c r="D36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F36" t="s">
-        <v>4</v>
-      </c>
+      <c r="F36"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" s="13" customFormat="1" ht="75">
@@ -1226,13 +1243,13 @@
       <c r="B38" s="14" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="120">
+      <c r="F38" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="105">
       <c r="E39" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>5</v>
@@ -1242,6 +1259,9 @@
       <c r="B40" s="14" t="s">
         <v>63</v>
       </c>
+      <c r="F40" s="14" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="180">
       <c r="D41" s="5" t="s">
@@ -1250,9 +1270,7 @@
       <c r="E41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="F41" s="3"/>
       <c r="G41" s="2" t="s">
         <v>6</v>
       </c>
@@ -1261,94 +1279,109 @@
       <c r="B42" s="14" t="s">
         <v>64</v>
       </c>
+      <c r="F42" s="14" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="53.25" customHeight="1">
       <c r="D43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="44" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B44" s="14" t="s">
         <v>65</v>
       </c>
+      <c r="F44" s="14" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="45" spans="1:7" ht="237.75" customHeight="1">
       <c r="E45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="46" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B46" s="14" t="s">
         <v>66</v>
       </c>
+      <c r="F46" s="14" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="240">
       <c r="D47" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B48" s="14" t="s">
         <v>67</v>
       </c>
+      <c r="F48" s="14" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="49" spans="2:6" ht="30">
       <c r="D49" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="2:6" s="14" customFormat="1" ht="15.75">
       <c r="B50" s="14" t="s">
         <v>68</v>
       </c>
+      <c r="F50" s="14" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="51" spans="2:6">
       <c r="D51" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="2:6" s="14" customFormat="1" ht="15.75">
       <c r="B52" s="14" t="s">
         <v>69</v>
       </c>
+      <c r="F52" s="14" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="53" spans="2:6" ht="30">
       <c r="D53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="2:6" s="14" customFormat="1" ht="15.75">
       <c r="B54" s="14" t="s">
-        <v>70</v>
+        <v>101</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="2:6">
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/SearchComponents.xlsx
+++ b/trunk/SearchComponents.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="103">
   <si>
     <t>Ví dụ</t>
   </si>
@@ -440,9 +440,6 @@
   </si>
   <si>
     <t>admin</t>
-  </si>
-  <si>
-    <t>chưa</t>
   </si>
   <si>
     <t>6.9 LocalSolr</t>
@@ -872,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D33" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1131,7 +1128,7 @@
         <v>72</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="9" customFormat="1" ht="30">
@@ -1192,9 +1189,7 @@
       <c r="E32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F32" t="s">
-        <v>4</v>
-      </c>
+      <c r="F32"/>
       <c r="G32" t="s">
         <v>17</v>
       </c>
@@ -1204,7 +1199,7 @@
         <v>60</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="60">
@@ -1306,7 +1301,7 @@
         <v>66</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="240">
@@ -1341,7 +1336,7 @@
         <v>68</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="2:6">
@@ -1357,7 +1352,7 @@
         <v>69</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="30">
@@ -1370,18 +1365,15 @@
     </row>
     <row r="54" spans="2:6" s="14" customFormat="1" ht="15.75">
       <c r="B54" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="2:6">
       <c r="D55" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/SearchComponents.xlsx
+++ b/trunk/SearchComponents.xlsx
@@ -869,15 +869,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="22" style="4" customWidth="1"/>
-    <col min="3" max="3" width="46" style="4" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="58.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="53.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="50.7109375" style="2" customWidth="1"/>
